--- a/DataUpload/Seed Data/adta.xlsx
+++ b/DataUpload/Seed Data/adta.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="97">
-  <si>
-    <t>Distributor Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="98">
   <si>
     <t>Praveen Thadakamalla</t>
   </si>
@@ -208,103 +205,109 @@
     <t>RSM</t>
   </si>
   <si>
-    <t>Distributor Location</t>
-  </si>
-  <si>
-    <t>Final Beat Name</t>
-  </si>
-  <si>
-    <t>ESM Email Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESM Contact Number </t>
-  </si>
-  <si>
     <t>ESM</t>
   </si>
   <si>
-    <t>RSM Email Id</t>
-  </si>
-  <si>
     <t>ASM</t>
   </si>
   <si>
-    <t>RSM Zone</t>
-  </si>
-  <si>
-    <t>RSM Secondary Email Id</t>
-  </si>
-  <si>
-    <t>ASM Email Id</t>
-  </si>
-  <si>
-    <t>ASM Zone</t>
-  </si>
-  <si>
-    <t>ESM Zone</t>
-  </si>
-  <si>
-    <t>ESM Secondary Email Id</t>
-  </si>
-  <si>
-    <t>ESM HQ</t>
-  </si>
-  <si>
     <t>Beat Erp Id</t>
   </si>
   <si>
-    <t>Beat District</t>
-  </si>
-  <si>
-    <t>Beat State</t>
-  </si>
-  <si>
-    <t>Beat Zone</t>
-  </si>
-  <si>
-    <t>Distributor ErpId</t>
-  </si>
-  <si>
-    <t>ZSM Secondary Email Id</t>
-  </si>
-  <si>
-    <t>ZSM Email Id</t>
-  </si>
-  <si>
-    <t>ZSM Zone</t>
-  </si>
-  <si>
     <t>ZSM</t>
   </si>
   <si>
-    <t>NSM Secondary Email Id</t>
-  </si>
-  <si>
-    <t>NSM Zone</t>
-  </si>
-  <si>
     <t>NSM</t>
   </si>
   <si>
-    <t>ASM Secondary Email Id</t>
-  </si>
-  <si>
     <t>Ankit</t>
   </si>
   <si>
     <t>Pradeep Singh</t>
   </si>
   <si>
-    <t>ESM ErpId</t>
-  </si>
-  <si>
-    <t>NSM Email Id</t>
-  </si>
-  <si>
-    <t>Distributor Email Id</t>
-  </si>
-  <si>
     <t>ff</t>
+  </si>
+  <si>
+    <t>NSMZone</t>
+  </si>
+  <si>
+    <t>NSMEmailId</t>
+  </si>
+  <si>
+    <t>NSMSecondaryEmailId</t>
+  </si>
+  <si>
+    <t>ZSMZone</t>
+  </si>
+  <si>
+    <t>ZSMEmailId</t>
+  </si>
+  <si>
+    <t>ZSMSecondaryEmailId</t>
+  </si>
+  <si>
+    <t>RSMEmailId</t>
+  </si>
+  <si>
+    <t>RSMZone</t>
+  </si>
+  <si>
+    <t>RSMSecondaryEmail Id</t>
+  </si>
+  <si>
+    <t>ASMEmailId</t>
+  </si>
+  <si>
+    <t>ASMZone</t>
+  </si>
+  <si>
+    <t>ASMSecondaryEmailId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESMContactNumber </t>
+  </si>
+  <si>
+    <t>ESMZone</t>
+  </si>
+  <si>
+    <t>ESMEmailId</t>
+  </si>
+  <si>
+    <t>ESMSecondaryEmailId</t>
+  </si>
+  <si>
+    <t>ESMErpId</t>
+  </si>
+  <si>
+    <t>ESMHQ</t>
+  </si>
+  <si>
+    <t>FinalBeatName</t>
+  </si>
+  <si>
+    <t>BeatErpId</t>
+  </si>
+  <si>
+    <t>BeatDistrict</t>
+  </si>
+  <si>
+    <t>BeatState</t>
+  </si>
+  <si>
+    <t>BeatZone</t>
+  </si>
+  <si>
+    <t>DistributorName</t>
+  </si>
+  <si>
+    <t>DistributorLocation</t>
+  </si>
+  <si>
+    <t>DistributorEmailId</t>
+  </si>
+  <si>
+    <t>DistributorErpId</t>
   </si>
 </sst>
 </file>
@@ -850,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,6 +865,7 @@
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" customWidth="1"/>
     <col min="13" max="13" width="20.28515625" customWidth="1"/>
     <col min="17" max="17" width="16.5703125" customWidth="1"/>
@@ -881,195 +885,195 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="Y1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="S1" t="s">
-        <v>75</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" t="s">
-        <v>93</v>
-      </c>
-      <c r="W1" t="s">
-        <v>77</v>
-      </c>
-      <c r="X1" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="R2" s="10">
         <v>9638457134</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V2" s="14">
         <v>1234567</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y2" s="10">
         <v>1345789</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="AF2" s="14">
         <v>1224329</v>
@@ -1077,97 +1081,97 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="R3" s="10">
         <v>9638457134</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V3" s="14">
         <v>1234568</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y3" s="10">
         <v>2342123</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE3" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="AF3" s="14">
         <v>1224334</v>
@@ -1175,91 +1179,91 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="3"/>
       <c r="G4" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R4" s="19">
         <v>8758081820</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T4" s="14"/>
       <c r="U4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V4" s="14">
         <v>1234569</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y4" s="10">
         <v>3338457</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE4" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="AF4" s="14">
         <v>1224339</v>
@@ -1267,95 +1271,95 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R5" s="19">
         <v>8758081821</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V5" s="14">
         <v>1234570</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y5" s="10">
         <v>4334791</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE5" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="AF5" s="14">
         <v>1224344</v>
@@ -1363,97 +1367,97 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="R6" s="10">
         <v>9638457134</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V6" s="14">
         <v>1234571</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y6" s="10">
         <v>5331125</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="AE6" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="AF6" s="14">
         <v>1224349</v>
@@ -1461,95 +1465,95 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="M7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R7" s="10">
         <v>8758081820</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T7" s="14"/>
       <c r="U7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V7" s="14">
         <v>1234572</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y7" s="10">
         <v>6327459</v>
       </c>
       <c r="Z7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="AA7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE7" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="AF7" s="14">
         <v>1224354</v>
@@ -1557,97 +1561,97 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="O8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="R8" s="10">
         <v>9638457134</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T8" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V8" s="14">
         <v>1234573</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y8" s="10">
         <v>7323793</v>
       </c>
       <c r="Z8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="AA8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE8" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="AF8" s="14">
         <v>1224359</v>
@@ -1655,95 +1659,95 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="Q9" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R9" s="10">
         <v>8758081820</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T9" s="14"/>
       <c r="U9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V9" s="14">
         <v>1234574</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y9" s="10">
         <v>8320127</v>
       </c>
       <c r="Z9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE9" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="AA9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE9" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="AF9" s="14">
         <v>1224364</v>
@@ -1751,97 +1755,97 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="Q10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R10" s="3">
         <v>9310824130</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V10" s="14">
         <v>1234575</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y10" s="10">
         <v>9316461</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD10" s="5" t="s">
+      <c r="AE10" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="AF10" s="14">
         <v>1224369</v>
@@ -1849,97 +1853,97 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="Q11" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="R11" s="3">
         <v>9711477676</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V11" s="14">
         <v>1234576</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y11" s="10">
         <v>10312795</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD11" s="5" t="s">
+      <c r="AE11" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="AF11" s="14">
         <v>1224374</v>
@@ -1947,97 +1951,97 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="K12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="O12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12" s="6">
         <v>8125847890</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V12" s="14">
         <v>1234577</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y12" s="10">
         <v>11309129</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="AC12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE12" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="AF12" s="14">
         <v>1224379</v>
@@ -2045,97 +2049,97 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13" s="6">
         <v>8125847890</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V13" s="14">
         <v>1234578</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y13" s="10">
         <v>12305463</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE13" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE13" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="AF13" s="14">
         <v>1224384</v>
@@ -2143,97 +2147,97 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="K14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="R14" s="6">
         <v>8125847890</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V14" s="14">
         <v>1234579</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y14" s="10">
         <v>13301797</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE14" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="AD14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE14" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="AF14" s="14">
         <v>1224389</v>
@@ -2241,97 +2245,97 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="K15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="Q15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R15" s="6">
         <v>9951830790</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V15" s="14">
         <v>1234580</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X15" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y15" s="10">
         <v>14298131</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE15" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="AD15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE15" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="AF15" s="14">
         <v>1224394</v>
@@ -2339,97 +2343,97 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="K16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R16" s="6">
         <v>9951830790</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V16" s="14">
         <v>1234581</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Y16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC16" s="6" t="s">
+      <c r="AD16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE16" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="AD16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE16" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="AF16" s="14">
         <v>1224399</v>
@@ -2437,97 +2441,97 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="K17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="M17" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R17" s="6">
         <v>9951830790</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V17" s="14">
         <v>1234582</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X17" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y17" s="10">
         <v>15294465</v>
       </c>
       <c r="Z17" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE17" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE17" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="AF17" s="14">
         <v>1224404</v>
@@ -2535,95 +2539,95 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="K18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="M18" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R18" s="6">
         <v>9951830790</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V18" s="14">
         <v>1234583</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y18" s="10">
         <v>16290799</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE18" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="AD18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE18" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="AF18" s="14">
         <v>1224409</v>
@@ -2631,95 +2635,95 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="K19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="M19" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N19" s="14"/>
       <c r="O19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R19" s="10">
         <v>9638457134</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T19" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V19" s="14">
         <v>1234584</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X19" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y19" s="10">
         <v>17287133</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA19" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB19" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE19" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="AE19" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="AF19" s="14">
         <v>1224414</v>
@@ -2727,93 +2731,93 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="K20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L20" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="M20" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R20" s="10">
         <v>8758081820</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T20" s="14"/>
       <c r="U20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V20" s="14">
         <v>1234585</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X20" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y20">
         <v>1234567</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA20" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE20" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="AE20" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="AF20" s="14"/>
     </row>

--- a/DataUpload/Seed Data/adta.xlsx
+++ b/DataUpload/Seed Data/adta.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="100">
+  <si>
+    <t>Distributor Name</t>
+  </si>
   <si>
     <t>Praveen Thadakamalla</t>
   </si>
@@ -205,109 +208,112 @@
     <t>RSM</t>
   </si>
   <si>
+    <t>Distributor Location</t>
+  </si>
+  <si>
+    <t>Final Beat Name</t>
+  </si>
+  <si>
+    <t>ESM Email Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESM Contact Number </t>
+  </si>
+  <si>
     <t>ESM</t>
   </si>
   <si>
+    <t>RSM Email Id</t>
+  </si>
+  <si>
     <t>ASM</t>
   </si>
   <si>
+    <t>RSM Zone</t>
+  </si>
+  <si>
+    <t>RSM Secondary Email Id</t>
+  </si>
+  <si>
+    <t>ASM Email Id</t>
+  </si>
+  <si>
+    <t>ASM Zone</t>
+  </si>
+  <si>
+    <t>ESM Zone</t>
+  </si>
+  <si>
+    <t>ESM Secondary Email Id</t>
+  </si>
+  <si>
+    <t>ESM HQ</t>
+  </si>
+  <si>
     <t>Beat Erp Id</t>
   </si>
   <si>
+    <t>Beat District</t>
+  </si>
+  <si>
+    <t>Beat State</t>
+  </si>
+  <si>
+    <t>Beat Zone</t>
+  </si>
+  <si>
+    <t>Distributor ErpId</t>
+  </si>
+  <si>
+    <t>ZSM Secondary Email Id</t>
+  </si>
+  <si>
+    <t>ZSM Email Id</t>
+  </si>
+  <si>
+    <t>ZSM Zone</t>
+  </si>
+  <si>
     <t>ZSM</t>
   </si>
   <si>
+    <t>NSM Secondary Email Id</t>
+  </si>
+  <si>
+    <t>NSM Zone</t>
+  </si>
+  <si>
     <t>NSM</t>
   </si>
   <si>
+    <t>ASM Secondary Email Id</t>
+  </si>
+  <si>
     <t>Ankit</t>
   </si>
   <si>
     <t>Pradeep Singh</t>
   </si>
   <si>
+    <t>ESM ErpId</t>
+  </si>
+  <si>
+    <t>NSM Email Id</t>
+  </si>
+  <si>
+    <t>Distributor Email Id</t>
+  </si>
+  <si>
     <t>ff</t>
   </si>
   <si>
-    <t>NSMZone</t>
-  </si>
-  <si>
-    <t>NSMEmailId</t>
-  </si>
-  <si>
-    <t>NSMSecondaryEmailId</t>
-  </si>
-  <si>
-    <t>ZSMZone</t>
-  </si>
-  <si>
-    <t>ZSMEmailId</t>
-  </si>
-  <si>
-    <t>ZSMSecondaryEmailId</t>
-  </si>
-  <si>
-    <t>RSMEmailId</t>
-  </si>
-  <si>
-    <t>RSMZone</t>
-  </si>
-  <si>
-    <t>RSMSecondaryEmail Id</t>
-  </si>
-  <si>
-    <t>ASMEmailId</t>
-  </si>
-  <si>
-    <t>ASMZone</t>
-  </si>
-  <si>
-    <t>ASMSecondaryEmailId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESMContactNumber </t>
-  </si>
-  <si>
-    <t>ESMZone</t>
-  </si>
-  <si>
-    <t>ESMEmailId</t>
-  </si>
-  <si>
-    <t>ESMSecondaryEmailId</t>
-  </si>
-  <si>
-    <t>ESMErpId</t>
-  </si>
-  <si>
-    <t>ESMHQ</t>
-  </si>
-  <si>
-    <t>FinalBeatName</t>
-  </si>
-  <si>
-    <t>BeatErpId</t>
-  </si>
-  <si>
-    <t>BeatDistrict</t>
-  </si>
-  <si>
-    <t>BeatState</t>
-  </si>
-  <si>
-    <t>BeatZone</t>
-  </si>
-  <si>
-    <t>DistributorName</t>
-  </si>
-  <si>
-    <t>DistributorLocation</t>
-  </si>
-  <si>
-    <t>DistributorEmailId</t>
-  </si>
-  <si>
-    <t>DistributorErpId</t>
+    <t>ankit</t>
+  </si>
+  <si>
+    <t>qwe123</t>
+  </si>
+  <si>
+    <t>qwertyuiop</t>
   </si>
 </sst>
 </file>
@@ -853,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +871,7 @@
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="27.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" customWidth="1"/>
     <col min="13" max="13" width="20.28515625" customWidth="1"/>
     <col min="17" max="17" width="16.5703125" customWidth="1"/>
@@ -885,195 +891,195 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="S1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="U1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="V1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" t="s">
+      <c r="X1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" t="s">
         <v>78</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Z1" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="AA1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF1" t="s">
         <v>82</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="S1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U1" t="s">
-        <v>86</v>
-      </c>
-      <c r="V1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="J2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="N2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="10">
+        <v>123</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="10">
-        <v>9638457134</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="V2" s="14">
         <v>1234567</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="10">
         <v>1345789</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="AF2" s="14">
         <v>1224329</v>
@@ -1081,97 +1087,97 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="J3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="N3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="10">
-        <v>9638457134</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="V3" s="14">
         <v>1234568</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y3" s="10">
         <v>2342123</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE3" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE3" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="AF3" s="14">
         <v>1224334</v>
@@ -1179,91 +1185,91 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="3"/>
       <c r="G4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="J4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="N4" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R4" s="19">
         <v>8758081820</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T4" s="14"/>
       <c r="U4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V4" s="14">
         <v>1234569</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y4" s="10">
         <v>3338457</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE4" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="AB4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE4" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="AF4" s="14">
         <v>1224339</v>
@@ -1271,95 +1277,95 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="L5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="N5" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R5" s="19">
         <v>8758081821</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V5" s="14">
         <v>1234570</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y5" s="10">
         <v>4334791</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE5" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="AB5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE5" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="AF5" s="14">
         <v>1224344</v>
@@ -1367,97 +1373,97 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="L6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="N6" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R6" s="10">
         <v>9638457134</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V6" s="14">
         <v>1234571</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y6" s="10">
         <v>5331125</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AA6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE6" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="AB6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE6" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="AF6" s="14">
         <v>1224349</v>
@@ -1465,95 +1471,95 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="L7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="N7" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R7" s="10">
         <v>8758081820</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T7" s="14"/>
       <c r="U7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V7" s="14">
         <v>1234572</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y7" s="10">
         <v>6327459</v>
       </c>
       <c r="Z7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AA7" s="10" t="s">
+      <c r="AD7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE7" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="AB7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE7" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="AF7" s="14">
         <v>1224354</v>
@@ -1561,97 +1567,97 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" s="10">
-        <v>9638457134</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="V8" s="14">
         <v>1234573</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y8" s="10">
         <v>7323793</v>
       </c>
       <c r="Z8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AA8" s="10" t="s">
+      <c r="AD8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE8" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="AB8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE8" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="AF8" s="14">
         <v>1224359</v>
@@ -1659,95 +1665,95 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="J9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="R9" s="10">
         <v>8758081820</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T9" s="14"/>
       <c r="U9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V9" s="14">
         <v>1234574</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y9" s="10">
         <v>8320127</v>
       </c>
       <c r="Z9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AA9" s="10" t="s">
+      <c r="AD9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE9" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="AB9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE9" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="AF9" s="14">
         <v>1224364</v>
@@ -1755,97 +1761,97 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="L10" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R10" s="3">
         <v>9310824130</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V10" s="14">
         <v>1234575</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y10" s="10">
         <v>9316461</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE10" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="AF10" s="14">
         <v>1224369</v>
@@ -1853,97 +1859,97 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>15</v>
-      </c>
       <c r="J11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="Q11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R11" s="3">
         <v>9711477676</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V11" s="14">
         <v>1234576</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y11" s="10">
         <v>10312795</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE11" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="AF11" s="14">
         <v>1224374</v>
@@ -1951,97 +1957,97 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="J12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="N12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="P12" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R12" s="6">
         <v>8125847890</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V12" s="14">
         <v>1234577</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y12" s="10">
         <v>11309129</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE12" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="AF12" s="14">
         <v>1224379</v>
@@ -2049,97 +2055,97 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="J13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="N13" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R13" s="6">
         <v>8125847890</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V13" s="14">
         <v>1234578</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y13" s="10">
         <v>12305463</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF13" s="14">
         <v>1224384</v>
@@ -2147,97 +2153,97 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="F14" s="10" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="J14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="N14" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R14" s="6">
         <v>8125847890</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V14" s="14">
         <v>1234579</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y14" s="10">
         <v>13301797</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD14" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF14" s="14">
         <v>1224389</v>
@@ -2245,97 +2251,97 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="J15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="N15" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R15" s="6">
         <v>9951830790</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V15" s="14">
         <v>1234580</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X15" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y15" s="10">
         <v>14298131</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF15" s="14">
         <v>1224394</v>
@@ -2343,97 +2349,97 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="J16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="N16" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R16" s="6">
         <v>9951830790</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V16" s="14">
         <v>1234581</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y16" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="AB16" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF16" s="14">
         <v>1224399</v>
@@ -2441,97 +2447,97 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="J17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="11" t="s">
+      <c r="N17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="P17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R17" s="6">
         <v>9951830790</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V17" s="14">
         <v>1234582</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X17" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y17" s="10">
         <v>15294465</v>
       </c>
       <c r="Z17" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF17" s="14">
         <v>1224404</v>
@@ -2539,95 +2545,95 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="J18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>0</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R18" s="6">
         <v>9951830790</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V18" s="14">
         <v>1234583</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y18" s="10">
         <v>16290799</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF18" s="14">
         <v>1224409</v>
@@ -2635,95 +2641,95 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="14" t="s">
+      <c r="J19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="N19" s="14"/>
       <c r="O19" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R19" s="10">
         <v>9638457134</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T19" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V19" s="14">
         <v>1234584</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X19" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y19" s="10">
         <v>17287133</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE19" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="AB19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE19" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="AF19" s="14">
         <v>1224414</v>
@@ -2731,93 +2737,93 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="14" t="s">
+      <c r="J20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R20" s="10">
         <v>8758081820</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T20" s="14"/>
       <c r="U20" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V20" s="14">
         <v>1234585</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X20" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y20">
         <v>1234567</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE20" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="AB20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE20" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="AF20" s="14"/>
     </row>
